--- a/4.Analysis/Data/raw/day2/phase_005/subj_day2_phase_005.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_005/subj_day2_phase_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -573,15 +573,6 @@
   </si>
   <si>
     <t xml:space="preserve">phase_005_subj_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	767710612724912129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	用户38124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_17</t>
   </si>
 </sst>
 </file>
@@ -2461,46 +2452,6 @@
         <v>668</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>666</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/4.Analysis/Data/raw/day2/phase_005/subj_day2_phase_005.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_005/subj_day2_phase_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t xml:space="preserve">检测记忆力	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">phase_005_subj_14</t>
@@ -1147,7 +1150,7 @@
         <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
         <v>47</v>
@@ -1156,7 +1159,7 @@
         <v>48</v>
       </c>
       <c r="AA3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB3" t="n">
         <v>577</v>
@@ -1164,19 +1167,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>33</v>
@@ -1185,7 +1188,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -1206,7 +1209,7 @@
         <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s">
         <v>41</v>
@@ -1242,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="n">
         <v>566</v>
@@ -1250,19 +1253,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -1271,7 +1274,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1313,13 +1316,13 @@
         <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Y5" t="s">
         <v>47</v>
@@ -1328,7 +1331,7 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
         <v>698</v>
@@ -1336,19 +1339,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1357,7 +1360,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
@@ -1399,10 +1402,10 @@
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
         <v>46</v>
@@ -1414,7 +1417,7 @@
         <v>48</v>
       </c>
       <c r="AA6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="n">
         <v>266</v>
@@ -1422,19 +1425,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1443,7 +1446,7 @@
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
@@ -1488,10 +1491,10 @@
         <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Y7" t="s">
         <v>47</v>
@@ -1500,7 +1503,7 @@
         <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB7" t="n">
         <v>208</v>
@@ -1508,19 +1511,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -1529,7 +1532,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
@@ -1571,10 +1574,10 @@
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
         <v>46</v>
@@ -1586,7 +1589,7 @@
         <v>48</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB8" t="n">
         <v>695</v>
@@ -1594,19 +1597,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1615,7 +1618,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
@@ -1660,7 +1663,7 @@
         <v>43</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
         <v>46</v>
@@ -1672,7 +1675,7 @@
         <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB9" t="n">
         <v>448</v>
@@ -1680,19 +1683,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -1701,7 +1704,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -1713,7 +1716,7 @@
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
@@ -1722,7 +1725,7 @@
         <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s">
         <v>41</v>
@@ -1743,10 +1746,10 @@
         <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
         <v>46</v>
@@ -1758,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AB10" t="n">
         <v>150</v>
@@ -1766,19 +1769,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -1787,7 +1790,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
@@ -1796,19 +1799,19 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
         <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s">
         <v>41</v>
@@ -1829,13 +1832,13 @@
         <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Y11" t="s">
         <v>47</v>
@@ -1844,7 +1847,7 @@
         <v>48</v>
       </c>
       <c r="AA11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
         <v>271</v>
@@ -1852,19 +1855,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -1873,7 +1876,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
@@ -1915,10 +1918,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
         <v>46</v>
@@ -1930,7 +1933,7 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB12" t="n">
         <v>92</v>
@@ -1938,19 +1941,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -1959,7 +1962,7 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
@@ -2004,7 +2007,7 @@
         <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
         <v>46</v>
@@ -2016,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="AA13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB13" t="n">
         <v>411</v>
@@ -2024,19 +2027,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -2045,7 +2048,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
@@ -2057,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
@@ -2066,7 +2069,7 @@
         <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P14" t="s">
         <v>41</v>
@@ -2090,7 +2093,7 @@
         <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
         <v>46</v>
@@ -2102,7 +2105,7 @@
         <v>48</v>
       </c>
       <c r="AA14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB14" t="n">
         <v>533</v>
@@ -2110,19 +2113,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -2131,7 +2134,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -2176,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
         <v>46</v>
@@ -2188,7 +2191,7 @@
         <v>48</v>
       </c>
       <c r="AA15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB15" t="n">
         <v>649</v>
@@ -2196,19 +2199,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
         <v>33</v>
@@ -2217,7 +2220,7 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
@@ -2229,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
@@ -2238,7 +2241,7 @@
         <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
         <v>41</v>
@@ -2262,7 +2265,7 @@
         <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
         <v>46</v>
@@ -2274,7 +2277,7 @@
         <v>48</v>
       </c>
       <c r="AA16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
         <v>48</v>
@@ -2282,19 +2285,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -2303,7 +2306,7 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -2348,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
         <v>46</v>
@@ -2360,7 +2363,7 @@
         <v>48</v>
       </c>
       <c r="AA17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB17" t="n">
         <v>171</v>
@@ -2368,19 +2371,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -2389,7 +2392,7 @@
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -2431,10 +2434,10 @@
         <v>43</v>
       </c>
       <c r="V18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="W18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
         <v>46</v>
@@ -2446,7 +2449,7 @@
         <v>48</v>
       </c>
       <c r="AA18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB18" t="n">
         <v>668</v>
